--- a/files/results/results-set-3.xlsx
+++ b/files/results/results-set-3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Documents\TUDarmstadt\Masterarbeit\chess-annotation\files\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87CF2DF-5030-467D-B982-D8CA9EFD5795}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="position-1" sheetId="4" r:id="rId4"/>
     <sheet name="position-2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -71,12 +77,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +137,6080 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4972-4B15-BC79-5140614EAB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72524999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4972-4B15-BC79-5140614EAB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4972-4B15-BC79-5140614EAB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73575000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67974999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4972-4B15-BC79-5140614EAB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491671120"/>
+        <c:axId val="491670160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491671120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491670160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491670160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.66000000000000014"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491671120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75349999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59350000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D97-4663-94E2-5C970FF49ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59250000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D97-4663-94E2-5C970FF49ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D97-4663-94E2-5C970FF49ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53449999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D97-4663-94E2-5C970FF49ACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="307684720"/>
+        <c:axId val="516943224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="307684720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516943224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516943224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307684720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB5C-41E8-A661-32AF6027C350}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.50149999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50249999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB5C-41E8-A661-32AF6027C350}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44450000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB5C-41E8-A661-32AF6027C350}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46350000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB5C-41E8-A661-32AF6027C350}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491691600"/>
+        <c:axId val="491695440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491691600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491695440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491695440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.42000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491691600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57850000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0335-4233-A73F-2AB404A4C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58150000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0335-4233-A73F-2AB404A4C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0335-4233-A73F-2AB404A4C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0335-4233-A73F-2AB404A4C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491679120"/>
+        <c:axId val="491682640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491679120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491682640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491682640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.53"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491679120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B311-4F8C-9FA3-050B1E8F4864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B311-4F8C-9FA3-050B1E8F4864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.28749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27250000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B311-4F8C-9FA3-050B1E8F4864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B311-4F8C-9FA3-050B1E8F4864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491667280"/>
+        <c:axId val="491667920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491667280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491667920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491667920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491667280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0690E4-8EFB-4676-B79B-09063FFBCE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A6076C-8E31-4583-AA47-FA3D63AE567C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D3FD97-9819-4584-9BE7-EA65C2F28E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5647D475-6071-4548-B6CE-31D23A175EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3F41DF-4275-4BA4-9948-4B0AFBB743F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,9 +6248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +6282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +6334,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,16 +6527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -486,7 +6593,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -519,7 +6626,7 @@
         <v>0.47150000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -552,7 +6659,7 @@
         <v>0.35949999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -568,20 +6675,19 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -607,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -640,7 +6746,7 @@
         <v>0.11407407407407401</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -673,7 +6779,7 @@
         <v>0.12148148148148158</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -706,7 +6812,7 @@
         <v>-0.37925925925925924</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -721,13 +6827,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -737,7 +6843,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -747,7 +6853,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -757,13 +6863,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -774,20 +6880,19 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -813,7 +6918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -846,7 +6951,7 @@
         <v>6.9058295964125521E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +6984,7 @@
         <v>5.8295964125560491E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -912,7 +7017,7 @@
         <v>5.7399103139013405E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -945,7 +7050,7 @@
         <v>6.7264573991031348E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -978,7 +7083,7 @@
         <v>5.7399103139013405E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +7116,7 @@
         <v>6.3677130044843003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +7149,7 @@
         <v>3.7668161434977615E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +7182,7 @@
         <v>-0.29506726457399102</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +7211,7 @@
         <v>3.6771300448430529E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +7240,7 @@
         <v>6.9058295964125521E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1151,20 +7256,19 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +7294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +7327,7 @@
         <v>-1.405152224824357E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +7360,7 @@
         <v>-2.2248243559718855E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +7393,7 @@
         <v>-2.3419203747072619E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +7426,7 @@
         <v>-2.1077283372365356E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +7459,7 @@
         <v>-1.288056206088981E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +7492,7 @@
         <v>-1.6393442622950831E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +7525,7 @@
         <v>-3.3957845433255168E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +7558,7 @@
         <v>-0.66393442622950805</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +7587,7 @@
         <v>-4.2154566744730455E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +7616,7 @@
         <v>-2.5761124121779621E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1528,20 +7632,19 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +7670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +7703,7 @@
         <v>2.8159340659340608E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +7736,7 @@
         <v>4.3269230769230733E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +7769,7 @@
         <v>5.2197802197802172E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +7802,7 @@
         <v>3.5027472527472486E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1732,7 +7835,7 @@
         <v>4.4642857142857109E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +7868,7 @@
         <v>4.4642857142857109E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +7901,7 @@
         <v>4.1208791208791173E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +7934,7 @@
         <v>-0.15247252747252749</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +7963,7 @@
         <v>-1.3736263736263748E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +7992,7 @@
         <v>4.6016483516483485E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1905,5 +8008,6 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>